--- a/output.xlsx
+++ b/output.xlsx
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.429</v>
+        <v>1.438</v>
       </c>
     </row>
     <row r="15">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2.35</v>
+        <v>2.233</v>
       </c>
     </row>
     <row r="29">

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.281</v>
+        <v>1.253</v>
       </c>
     </row>
     <row r="36">
@@ -2414,27 +2414,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>637b958abaa78f5df585bad5</t>
+          <t>63843261baa78fd920838ab6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Al-Seeb</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Al Nahda Muscat</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ecuador_X_Senegal#2.5</t>
+          <t>AlSeeb_X_AlNahdaM#2.5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>29/11/2022 11:00</t>
+          <t>29/11/2022 11:15</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1.222</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="54">
@@ -2452,22 +2452,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>637b958abaa78f5df585bad6</t>
+          <t>637b958abaa78f5df585bad5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Netherland_X_Qatar#2.5</t>
+          <t>Ecuador_X_Senegal#2.5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1.518</v>
+        <v>1.222</v>
       </c>
     </row>
     <row r="55">
@@ -2490,27 +2490,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>637dbeacbaa78f5df598fe27</t>
+          <t>637b958abaa78f5df585bad6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tabor Sežana</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NDGorica_X_TaborSeza#2.5</t>
+          <t>Netherland_X_Qatar#2.5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>29/11/2022 09:00</t>
+          <t>29/11/2022 11:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1.281</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="56">
@@ -2528,22 +2528,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>63840ce1baa78fd92082b21b</t>
+          <t>637dbeacbaa78f5df598fe27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wolkite Ketema</t>
+          <t>Tabor Sežana</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DireDawa_X_WolkiteKe#2.5</t>
+          <t>NDGorica_X_TaborSeza#2.5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.203</v>
+        <v>1.281</v>
       </c>
     </row>
     <row r="57">
@@ -2566,27 +2566,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>63840831baa78fd920829b34</t>
+          <t>63840ce1baa78fd92082b21b</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bahla</t>
+          <t>Dire Dawa Kenema</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Al-Ittihad (OMN)</t>
+          <t>Wolkite Ketema</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bahla_X_AlIttihad#2.5</t>
+          <t>DireDawa_X_WolkiteKe#2.5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>29/11/2022 08:40</t>
+          <t>29/11/2022 09:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1.147</v>
+        <v>1.203</v>
       </c>
     </row>
     <row r="58">
@@ -2604,22 +2604,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>63840831baa78fd920829b35</t>
+          <t>63840831baa78fd920829b34</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Al Suwaiq</t>
+          <t>Bahla</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mussanah Club</t>
+          <t>Al-Ittihad (OMN)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AlSuwaiq_X_MussanahC#2.5</t>
+          <t>Bahla_X_AlIttihad#2.5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2642,27 +2642,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>637c141bbaa78f5df589d61b</t>
+          <t>63840831baa78fd920829b35</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>Al Suwaiq</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Mussanah Club</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FKSumqayi_X_FKQabala#2.5</t>
+          <t>AlSuwaiq_X_MussanahC#2.5</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>29/11/2022 08:30</t>
+          <t>29/11/2022 08:40</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1.222</v>
+        <v>1.147</v>
       </c>
     </row>
     <row r="60">
@@ -2680,27 +2680,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>637c141dbaa78f5df589d627</t>
+          <t>637c141bbaa78f5df589d61b</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Alessandria</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Alessandri_X_Olbia#2.5</t>
+          <t>FKSumqayi_X_FKQabala#2.5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>29/11/2022 08:00</t>
+          <t>29/11/2022 08:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2718,22 +2718,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6383fed2baa78fd9208247a7</t>
+          <t>637c141dbaa78f5df589d627</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>Alessandria</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FC Shirak</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BKMAYerev_X_FCShirak#2.5</t>
+          <t>Alessandri_X_Olbia#2.5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1.194</v>
+        <v>1.222</v>
       </c>
     </row>
     <row r="62">
@@ -2756,35 +2756,73 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>6383fed2baa78fd9208247a7</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BKMA Yerevan</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FC Shirak</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BKMAYerev_X_FCShirak#2.5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>29/11/2022 08:00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-1.5 1T</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>6383e2b1baa78fd92080a89c</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>FC Noah</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Alashkert FC</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>FCNoah_X_Alashkert#2.5</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>29/11/2022 06:00</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>-1.5 1T</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-1.5 1T</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>1.282</v>
       </c>
     </row>
